--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.505</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.173</v>
+        <v>17.126</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.906</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.782999999999999</v>
+        <v>8.114000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.976</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.099</v>
+        <v>0.955</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.23174190859122</v>
+        <v>14.73288655608578</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.51917508898517</v>
+        <v>18.13071576999673</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.85291278171648</v>
+        <v>17.04850212267617</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.246366980098891</v>
+        <v>4.445998773550304</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.48571360488305</v>
+        <v>17.61156219055079</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.35546788267725</v>
+        <v>21.41885459214279</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.569578929753945</v>
+        <v>7.954055213904489</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.46527516475086</v>
+        <v>25.91679110610408</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.91640909446629</v>
+        <v>26.79681172048576</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.85543201619754</v>
+        <v>26.20134059020754</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.68200055137491</v>
+        <v>31.50727302073684</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.99278207723298</v>
+        <v>33.51618119644075</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.78561564273995</v>
+        <v>12.23211842078966</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.26112831469248</v>
+        <v>23.62599378912125</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.53105083564755</v>
+        <v>24.5101645101557</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.75217793652401</v>
+        <v>15.4084422663154</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.50162997241559</v>
+        <v>34.4022485695851</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.31910449106013</v>
+        <v>40.29470004300532</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.136755298940045</v>
+        <v>4.143337738875747</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.02341614659969</v>
+        <v>28.30079341790609</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44.93083040064437</v>
+        <v>40.48468381148577</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.172871020611762</v>
+        <v>5.299827213150873</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>55.06344885950313</v>
+        <v>51.94852433083403</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>69.28955341140305</v>
+        <v>68.57522606681506</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>55.45859874237866</v>
+        <v>52.12035987712893</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>67.19620542273414</v>
+        <v>64.05338536016157</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>76.08679650378558</v>
+        <v>71.43419549282662</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.12509096855475</v>
+        <v>14.14670042336826</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73.15864772088443</v>
+        <v>68.85412087256729</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>77.83691364764734</v>
+        <v>76.70836293982914</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.24267502368932</v>
+        <v>25.11938383060539</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.0511393996156</v>
+        <v>45.16344917922105</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.62939999222316</v>
+        <v>49.36176154452622</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.987238498277449</v>
+        <v>6.275704802131127</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.06372374303751</v>
+        <v>35.86422083844258</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.80947776344543</v>
+        <v>49.70921136505156</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.8676710080874</v>
+        <v>13.2576404714789</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>72.93946127022444</v>
+        <v>70.48483706936302</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>74.30027204240065</v>
+        <v>74.03605813663044</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>80.04259398316603</v>
+        <v>76.92332452109498</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>91.05551229820162</v>
+        <v>85.33229789361592</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>94.6817146885479</v>
+        <v>90.55388850992236</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.79859008817149</v>
+        <v>30.51629660842317</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>91.61096586413316</v>
+        <v>88.9107954311274</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>92.52659590599235</v>
+        <v>90.29343694656384</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.16365164837516</v>
+        <v>7.747036701788769</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.48781784476964</v>
+        <v>41.86276954978825</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.66289182482472</v>
+        <v>42.41638938047494</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.012072366082002</v>
+        <v>4.11372808561897</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44.30053561500158</v>
+        <v>42.2425203098114</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>45.98758897908303</v>
+        <v>47.57000801188693</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.436385021764952</v>
+        <v>4.71907669380322</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>64.09030860461175</v>
+        <v>64.66552485077376</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66.55589820415523</v>
+        <v>65.18390153629625</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>60.58315459175072</v>
+        <v>59.31850205146947</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>66.39576481417298</v>
+        <v>61.82112844943985</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>68.21941981932541</v>
+        <v>63.69026388992285</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.04615777125684</v>
+        <v>9.067584901732509</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>60.55489388266749</v>
+        <v>59.79604575632057</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>63.59310966522702</v>
+        <v>64.87388538767709</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.01947037049989</v>
+        <v>9.205919380296681</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.63939072553196</v>
+        <v>40.45768920255549</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.7008195209525</v>
+        <v>45.04866691041997</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.207098068698546</v>
+        <v>4.214966744406524</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.02144681781438</v>
+        <v>33.19353037587522</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>44.85941850747682</v>
+        <v>43.48057213136994</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.824645195113998</v>
+        <v>4.561485502550433</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>60.199691292189</v>
+        <v>57.564761110436</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>74.98383564445535</v>
+        <v>75.13522346221518</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>58.52222553118548</v>
+        <v>55.81855867739789</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>70.62831634514076</v>
+        <v>68.3071157955125</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74.46849457771802</v>
+        <v>74.34492810227403</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.667876378751654</v>
+        <v>6.557192521430803</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>69.92098155908698</v>
+        <v>69.60633743893297</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>75.6812425162437</v>
+        <v>75.95656745876516</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.75444030376903</v>
+        <v>9.018546015048575</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.09771720970933</v>
+        <v>46.07439236923555</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.305132001418</v>
+        <v>49.45746330040259</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6.591440649837796</v>
+        <v>4.174029873835696</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.0983626002026</v>
+        <v>43.17002040927665</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.76872620845229</v>
+        <v>53.32942573325379</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.960343945574575</v>
+        <v>4.118933846731458</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>76.05670022500476</v>
+        <v>72.77094282399314</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>85.14098430101409</v>
+        <v>80.50468482393784</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>81.8875524518257</v>
+        <v>78.761922234569</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>93.00964396205153</v>
+        <v>90.54447559451468</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93.45441479056346</v>
+        <v>91.98071153714189</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9.742616782147522</v>
+        <v>7.055033028136403</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>85.70706174291531</v>
+        <v>84.68929927078298</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>88.3253520096431</v>
+        <v>88.02935661507448</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.48790725092089</v>
+        <v>32.38050780625851</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.71737268932631</v>
+        <v>39.39469331372909</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.79238052241107</v>
+        <v>42.17732014410824</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.014323019602003</v>
+        <v>4.827301251175367</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.67095727806861</v>
+        <v>43.7787773417035</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.72221860563386</v>
+        <v>45.18694751063045</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.623198460478811</v>
+        <v>6.404657379499895</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>66.65068258038312</v>
+        <v>68.24633279780033</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.37957541725407</v>
+        <v>64.40064683028356</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>59.73115663638679</v>
+        <v>57.35624560190265</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>70.7653976146086</v>
+        <v>71.172931100425</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>68.98535618477844</v>
+        <v>69.77072073754395</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.06759986277571</v>
+        <v>26.61976304709148</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>59.91553464164166</v>
+        <v>59.97513914989834</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>61.14825018386112</v>
+        <v>61.48697783795282</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.92222603983481</v>
+        <v>25.88813151848605</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.3430158460678</v>
+        <v>43.21066410880846</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.72576894119591</v>
+        <v>45.10384255292431</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.888730011825942</v>
+        <v>4.696686719167793</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.02578777868253</v>
+        <v>39.74068649729985</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.35407000419708</v>
+        <v>44.28275376462683</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.520620696471351</v>
+        <v>6.024702945318179</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>65.75526942023458</v>
+        <v>65.69924407727717</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>75.6020890169177</v>
+        <v>75.83654572267179</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>62.89883948345559</v>
+        <v>61.10712954986359</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>75.16893454734671</v>
+        <v>72.7892471035137</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>75.11572027716613</v>
+        <v>74.67333594449313</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.49254151417701</v>
+        <v>27.35963354903371</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>71.5574261586968</v>
+        <v>70.37286563493417</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>73.639813109969</v>
+        <v>73.7779089892871</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.2728346857764</v>
+        <v>32.8532117677244</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.89136264711895</v>
+        <v>49.39091252470972</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>52.86459203884181</v>
+        <v>48.3754792923088</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.370532466581597</v>
+        <v>4.958420954688822</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>52.07357299544</v>
+        <v>49.77101287759089</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>54.91459829282361</v>
+        <v>50.80824663106901</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.68439791346535</v>
+        <v>7.191570964133717</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>78.35983627713523</v>
+        <v>75.62649487754659</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>82.52670238618531</v>
+        <v>75.79155665125521</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>86.19447746446635</v>
+        <v>80.90135279663197</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>92.00038077649108</v>
+        <v>84.41328834189396</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>94.30646652624436</v>
+        <v>89.18182485459107</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.03127718438203</v>
+        <v>34.02716228936471</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>88.24814259034298</v>
+        <v>85.36670021100929</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>87.64994911256252</v>
+        <v>85.50563709086353</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.22877893100321</v>
+        <v>14.9141640930104</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.36021549412495</v>
+        <v>19.04710170882811</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.60601986368711</v>
+        <v>18.78656314380369</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.723161376877741</v>
+        <v>4.104223584107366</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.40099636085156</v>
+        <v>18.34052871219002</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.97864876192304</v>
+        <v>21.1724154204397</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.900118707731242</v>
+        <v>8.58912220369594</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.48112721973662</v>
+        <v>27.33934421869836</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.28268629155239</v>
+        <v>27.69813335572772</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.45579780959999</v>
+        <v>28.95801549530316</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.69225475102773</v>
+        <v>31.51347229887404</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.99159028014428</v>
+        <v>36.60948766245057</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>62.49158446215212</v>
+        <v>63.74766736992214</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>68.88146370048514</v>
+        <v>68.15564032223588</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>62.88929707076527</v>
+        <v>64.86700140975215</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.0161837309116</v>
+        <v>12.55053666394676</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>38.13447490444876</v>
+        <v>37.20505480245998</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.38054672877374</v>
+        <v>43.06719572083733</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.799835418908934</v>
+        <v>4.202350410125398</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>38.37634850367284</v>
+        <v>36.54650392002473</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.98358245086948</v>
+        <v>50.61286446497093</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>15.37632763753357</v>
+        <v>15.161903243154</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>60.30257883526504</v>
+        <v>56.01946125175408</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>71.31757450425913</v>
+        <v>70.35172300018006</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>54.4763772572708</v>
+        <v>50.37553507727427</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>64.49756693907392</v>
+        <v>58.92589355551328</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>70.71802802336489</v>
+        <v>68.88961885278887</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.12026748365618</v>
+        <v>13.23862020046404</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>66.97078269032407</v>
+        <v>63.85088607961517</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>73.6797694253742</v>
+        <v>71.31208491899216</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.26993592390246</v>
+        <v>25.29811908977937</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.9437556421299</v>
+        <v>45.55106001580594</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.28537489539193</v>
+        <v>48.47467595786836</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9.840071596763149</v>
+        <v>6.966448831719614</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.24825853210767</v>
+        <v>41.85659332697215</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.13850476908553</v>
+        <v>51.61959054987618</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.07000326747225</v>
+        <v>15.67922350788093</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>69.78787917593061</v>
+        <v>66.64665397279606</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>75.76892573000679</v>
+        <v>74.12894645427609</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>75.57795579660942</v>
+        <v>70.37691879176397</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>79.76249654141061</v>
+        <v>76.8209132175656</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>90.41385666229247</v>
+        <v>87.64309046036627</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.64817610390481</v>
+        <v>34.64345505558364</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>84.00688529555053</v>
+        <v>80.71323993441621</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>88.56690106297999</v>
+        <v>84.76403008334424</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.14949885782478</v>
+        <v>25.5209613659909</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.40615744231513</v>
+        <v>46.29916018331183</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.18546481415532</v>
+        <v>43.49606158018586</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.598767770413374</v>
+        <v>5.227395978292531</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>47.63465604812824</v>
+        <v>49.49314702106928</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>50.23682106220674</v>
+        <v>51.89328725098829</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.49413510553227</v>
+        <v>8.146201704048536</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>76.43814147678287</v>
+        <v>77.21231203517318</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>66.08437896671995</v>
+        <v>68.02817588047378</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>58.25719270417596</v>
+        <v>57.2385469832389</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>71.22749640499678</v>
+        <v>71.71740788038042</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>74.01264967764133</v>
+        <v>74.74674543435465</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.85528144519564</v>
+        <v>17.75227570971887</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7.973567058990078</v>
+        <v>5.267784024027463</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8.180435698653142</v>
+        <v>5.65070403929915</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.98912371113831</v>
+        <v>34.12217399228015</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.72425725565804</v>
+        <v>49.60312708815933</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>48.68879548761613</v>
+        <v>46.7942076801052</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.182192991974937</v>
+        <v>5.118276286848232</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>44.62281779703162</v>
+        <v>45.04219050938019</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.74837230406206</v>
+        <v>50.78296261892598</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.67327784932598</v>
+        <v>12.07788692124952</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>73.62965443101724</v>
+        <v>72.68842494723465</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>74.98650227024577</v>
+        <v>74.47524977683612</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>70.27103460803389</v>
+        <v>69.79129678621123</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>78.56560066246202</v>
+        <v>75.28849991162132</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>80.81355844958988</v>
+        <v>79.14378041896317</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.85412309199297</v>
+        <v>43.0322106234501</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>79.29806326478382</v>
+        <v>79.07677172835213</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.72548481874875</v>
+        <v>38.00521360521861</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>54.05418857955393</v>
+        <v>50.99762768166035</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>54.59028198707133</v>
+        <v>50.52547603936696</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.643019810007523</v>
+        <v>5.379579630554556</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.01407762333039</v>
+        <v>49.62877916714571</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>54.07142092708288</v>
+        <v>49.17743512009044</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.51495967036865</v>
+        <v>9.037099737786228</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>78.33983160376823</v>
+        <v>76.9436046013024</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>83.4997946584552</v>
+        <v>76.47670601569391</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>88.42268241013977</v>
+        <v>83.00531757708583</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>92.37475123282098</v>
+        <v>86.38651001622279</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>96.3738301922215</v>
+        <v>89.76262651308348</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>53.46794410439875</v>
+        <v>53.43720966331931</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>91.1849784144473</v>
+        <v>88.71785549485362</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>93.87964168470621</v>
+        <v>88.29911170689714</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.96508782175257</v>
+        <v>22.65818374810688</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.58152327729755</v>
+        <v>35.96516854712401</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>40.04549806743893</v>
+        <v>40.1188185294302</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>6.315221034718316</v>
+        <v>4.447369481910787</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>44.02011211530257</v>
+        <v>45.48547226274076</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.29275041882163</v>
+        <v>49.06064101656163</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.959277772588226</v>
+        <v>6.668709188325231</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>70.2461609137266</v>
+        <v>72.22678143415652</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>66.01807326727332</v>
+        <v>67.74566685091555</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.31277384825094</v>
+        <v>60.02668076969078</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>65.83008869342657</v>
+        <v>68.03025874923884</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>67.68263275806515</v>
+        <v>69.86146076294641</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.76371095842853</v>
+        <v>15.84628957948895</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6.975180474810589</v>
+        <v>4.385747128535158</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6.488264175429432</v>
+        <v>3.985317362700719</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.33395837432255</v>
+        <v>26.36630595686483</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.96249183681918</v>
+        <v>48.68851409758894</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>50.13792702417712</v>
+        <v>49.82998863465548</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.719439885237279</v>
+        <v>4.717221577939725</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.34862981376489</v>
+        <v>42.66517905369321</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>48.86379168840666</v>
+        <v>49.99969256209942</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.516245164451924</v>
+        <v>6.266794594308571</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.03754178338167</v>
+        <v>72.45097048109518</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>75.38368473276951</v>
+        <v>76.29203644615647</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>63.83213238159169</v>
+        <v>60.66499700895895</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>76.77843696006953</v>
+        <v>73.84591577334034</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>79.97145403367372</v>
+        <v>79.76325045128429</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.89984460122993</v>
+        <v>26.30083668337729</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>79.05367397436181</v>
+        <v>79.36683563245357</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>81.1289665048414</v>
+        <v>81.99917260183187</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>27.56546422159576</v>
+        <v>27.75831948219803</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>51.07208059141597</v>
+        <v>50.91845471086333</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.58128516237926</v>
+        <v>52.83755026925144</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.073302202467712</v>
+        <v>4.901758686825186</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.13451910348108</v>
+        <v>45.48712554520112</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.06139157069253</v>
+        <v>49.47274772057013</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.09251240384332</v>
+        <v>6.794581072248345</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>75.78320534100018</v>
+        <v>74.31643224957206</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>79.88622532817628</v>
+        <v>76.63889371210608</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>78.96738442321619</v>
+        <v>78.90461646179507</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>86.93241685799171</v>
+        <v>85.3923195147396</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>90.6426422949242</v>
+        <v>87.71192824232538</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.32965424689899</v>
+        <v>25.8712542674746</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>85.3812939394067</v>
+        <v>84.53406191707589</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>86.21477686496898</v>
+        <v>86.46524672409069</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.19844292980446</v>
+        <v>9.747618345945359</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.66991445824013</v>
+        <v>12.68488056197256</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.83376359149457</v>
+        <v>12.10570792403566</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.00632627840719735</v>
+        <v>3.859792656523329</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.36637298248287</v>
+        <v>15.29724052429051</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.7258432902637</v>
+        <v>17.48547214310694</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>2.202268421098079</v>
+        <v>4.503247675237304</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.45493650579133</v>
+        <v>19.3619768021642</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.67979669294452</v>
+        <v>20.91751279911549</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.19188015391308</v>
+        <v>26.4767253180326</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.97111811009376</v>
+        <v>32.95063530932256</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.6781514014605</v>
+        <v>35.4394892199308</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.82804858598787</v>
+        <v>11.24509520121325</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.00806511742605</v>
+        <v>18.5284910464256</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.97015068970644</v>
+        <v>18.92321824604944</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.97360703998207</v>
+        <v>11.17114532387889</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.34399822341749</v>
+        <v>28.78518585568418</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.12678577624742</v>
+        <v>35.98834602038701</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.312182898646242</v>
+        <v>4.347833761170513</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.30645731048249</v>
+        <v>29.5313480960513</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.45762716017038</v>
+        <v>39.07300307972965</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>7.983315963309618</v>
+        <v>4.86499859789302</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.12337938437491</v>
+        <v>44.90046237746031</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.57837304906037</v>
+        <v>54.89173477592756</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>44.86834437715286</v>
+        <v>44.13413995011435</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>52.90816323008083</v>
+        <v>52.05696694228523</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>55.5349708238062</v>
+        <v>54.73258029580809</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.51301149063325</v>
+        <v>12.27910906509667</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>51.68260474378636</v>
+        <v>50.13188153934467</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>55.50623053066491</v>
+        <v>53.02161740379089</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.83112000610263</v>
+        <v>19.42211466493451</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.27738594711436</v>
+        <v>34.62538783969259</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.74535322268417</v>
+        <v>45.29365240225689</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.318002230402964</v>
+        <v>4.850398104325283</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.19061347441286</v>
+        <v>42.55483183672388</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>49.15095105206697</v>
+        <v>49.98969529034181</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.84906975190332</v>
+        <v>7.942802808192685</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>63.59966135050895</v>
+        <v>64.11357469054255</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>67.07990891511173</v>
+        <v>65.99518039632508</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>72.05414088822924</v>
+        <v>68.97799547056266</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>81.00834957204923</v>
+        <v>77.25251255127607</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>84.0156343814681</v>
+        <v>78.48123202028793</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.59757291296176</v>
+        <v>30.52432896136376</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>77.13833613928394</v>
+        <v>76.49520062028243</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>82.94529714887628</v>
+        <v>82.7668738073849</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>9.178334215637495</v>
+        <v>9.188365876903205</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.99835302482844</v>
+        <v>12.51638814437637</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.85868580529408</v>
+        <v>10.85328102408354</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1.609521806344414</v>
+        <v>2.915477573919301</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.17995093609983</v>
+        <v>12.568443479148</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.8452905126923</v>
+        <v>17.51268349211387</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.4253375965429171</v>
+        <v>5.336014591249345</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.89384310258596</v>
+        <v>15.11007942109995</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.37136788777647</v>
+        <v>14.99137808099503</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.88722058749507</v>
+        <v>16.38353585076771</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.11904271191982</v>
+        <v>18.72422156790558</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.32949273289768</v>
+        <v>17.42790022704655</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.766872732851425</v>
+        <v>9.923014052528512</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.09925823605911</v>
+        <v>13.97808452833896</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.6779867190333</v>
+        <v>11.80810538467371</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.280487730802879</v>
+        <v>3.520156555056857</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.1045043738343</v>
+        <v>6.757117795237747</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.9491440995011</v>
+        <v>11.88632281308671</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-2.823609637902148</v>
+        <v>2.322751817844587</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.75004322702155</v>
+        <v>8.370984663589915</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>17.23232028489288</v>
+        <v>14.21688336018105</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-2.817581479884065</v>
+        <v>2.32268035102798</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.99731840253823</v>
+        <v>13.08838446850699</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.45146082067522</v>
+        <v>26.50607194664903</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>11.3360488341924</v>
+        <v>9.599933962738316</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.62549471056504</v>
+        <v>28.09690001531802</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>41.16155644745021</v>
+        <v>39.78026025439762</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1.271276463721755</v>
+        <v>3.180347570122247</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.99335899472091</v>
+        <v>17.71680730709622</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18.86216111709803</v>
+        <v>14.45075703082945</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>6.0336895447568</v>
+        <v>4.125238023723391</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.37106767745485</v>
+        <v>13.47782682645325</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.17051402460778</v>
+        <v>34.77144071713332</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-2.270606017424246</v>
+        <v>2.323126677086616</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.68157068174301</v>
+        <v>14.25313177990316</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.0553627167772</v>
+        <v>35.17230245898774</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.0725147934778434</v>
+        <v>2.377484418390619</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.5453695448275</v>
+        <v>22.48894566821448</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>64.59992867210906</v>
+        <v>64.72998342979109</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.06254088084184</v>
+        <v>16.78795114411806</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.86574154120429</v>
+        <v>51.40629697336234</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73.90626759067143</v>
+        <v>74.61611251067151</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>4.987224311164503</v>
+        <v>3.605513654789736</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.41967103000778</v>
+        <v>35.99608492827748</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>51.66981555409596</v>
+        <v>45.85721603116086</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.09744763489869</v>
+        <v>17.2804149655024</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.52406494142269</v>
+        <v>20.67311613290612</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.84565048023482</v>
+        <v>35.46075892925084</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.103017392935637</v>
+        <v>5.186998679437867</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>48.04118764652938</v>
+        <v>44.1332472271639</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>48.68918406146025</v>
+        <v>46.3000848485507</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.12905748561923</v>
+        <v>11.63890351918146</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>65.32634561311748</v>
+        <v>64.73786684480172</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.38402849113677</v>
+        <v>64.06064798378614</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>62.49605899738363</v>
+        <v>61.58542586460781</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>71.864793501842</v>
+        <v>72.15384951018302</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>68.22552649665272</v>
+        <v>69.24933587310345</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>41.46922926446635</v>
+        <v>39.0637173881794</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>61.51273947918155</v>
+        <v>58.08631751663344</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>74.91987137534676</v>
+        <v>71.04445417898386</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.63974083218888</v>
+        <v>21.37793210422018</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.53859558210306</v>
+        <v>34.28895962905962</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>39.64482774434053</v>
+        <v>36.93676795517957</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>7.656430902768303</v>
+        <v>4.722404087216798</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.96457510147019</v>
+        <v>35.66112951824988</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>40.02823055019451</v>
+        <v>37.86227798101127</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.21295953184995</v>
+        <v>7.062456329714159</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>56.16382523723372</v>
+        <v>54.27264240654915</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>63.319732793252</v>
+        <v>57.53187888064691</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.02542031557322</v>
+        <v>48.67694573274627</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>60.99247796207499</v>
+        <v>55.99248832700408</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>62.18865925841889</v>
+        <v>56.16834882084</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.25129846514338</v>
+        <v>29.34396528562195</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>63.81024975950963</v>
+        <v>58.71205701785854</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>65.45758185131628</v>
+        <v>59.00394800394197</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.27398712265687</v>
+        <v>23.50372322877501</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.42094735403429</v>
+        <v>35.28462047461775</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.90827130113714</v>
+        <v>45.34729266456185</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.424357877494302</v>
+        <v>5.221223074070377</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.90043024903754</v>
+        <v>47.70457420006149</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>50.21604877486209</v>
+        <v>49.50808708666668</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.44950785003589</v>
+        <v>8.007344311967938</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>71.3681508879498</v>
+        <v>69.6751189467778</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>77.11926736810962</v>
+        <v>72.36282477956601</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>74.66578106631303</v>
+        <v>72.26367574688716</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>82.68065078302094</v>
+        <v>77.92290896725747</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>83.59312811834819</v>
+        <v>79.20677580068357</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.95982614673395</v>
+        <v>33.87972369680965</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>81.51927390985362</v>
+        <v>76.54560421679712</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>83.91765851727801</v>
+        <v>81.4710987054317</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.703035948374382</v>
+        <v>8.646288007426698</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>14.36525143753894</v>
+        <v>11.152273421787</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.89698070747011</v>
+        <v>11.7012646788905</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.6055065447282146</v>
+        <v>3.418637479387822</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.3979665368233</v>
+        <v>10.53974271615355</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.28797092803158</v>
+        <v>14.21026512330341</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>1.033335016726241</v>
+        <v>4.977722111227404</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.43755567402386</v>
+        <v>16.80552043521355</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.3568312052674</v>
+        <v>19.00706207594379</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.70088130021719</v>
+        <v>17.80813282845805</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.12291375721351</v>
+        <v>21.84450620711506</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.07134200936008</v>
+        <v>25.03164108193998</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.067432682124789</v>
+        <v>7.954562113738984</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.80823575320282</v>
+        <v>15.28191954425844</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.67738709533059</v>
+        <v>17.52615068206692</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.588122071945275</v>
+        <v>6.197699302435794</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.36134072352024</v>
+        <v>20.49559131520611</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.5074574292946</v>
+        <v>27.6446936045216</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.847154720896651</v>
+        <v>3.605417904528618</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.26302740157742</v>
+        <v>19.7989165865999</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.27658579126405</v>
+        <v>31.1829200454139</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.258459229140922</v>
+        <v>3.89926060928488</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.07777190729615</v>
+        <v>33.93667529540483</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>44.01233503923711</v>
+        <v>45.15140791228886</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.12816994550364</v>
+        <v>28.44080317883201</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>40.3169840008955</v>
+        <v>37.69797271276413</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>45.4804274437876</v>
+        <v>43.06707392678962</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7.490458518336851</v>
+        <v>5.728236002033974</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>39.19608438062143</v>
+        <v>35.25116120160434</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>44.30226877893788</v>
+        <v>42.30079989334236</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.27112849598821</v>
+        <v>14.67230047513751</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.10386584635449</v>
+        <v>30.11514468885371</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>40.84031124854209</v>
+        <v>42.24832086402112</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>10.54288407612839</v>
+        <v>7.248502357938129</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.79199511341815</v>
+        <v>28.71159287808952</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>42.55350809011426</v>
+        <v>40.74482171469687</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.20290626520983</v>
+        <v>13.51949078324301</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>51.97686756304034</v>
+        <v>48.93611183783921</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>62.65436708924102</v>
+        <v>60.76378464979128</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>57.6668746952535</v>
+        <v>51.68075752932373</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>67.97888920477671</v>
+        <v>63.52689745566705</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>79.27632678770956</v>
+        <v>78.26945663863728</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.15599202743766</v>
+        <v>22.4593523917571</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>63.1451096781433</v>
+        <v>58.95259522703423</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>70.72436498404925</v>
+        <v>69.2959555460839</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.515426201217625</v>
+        <v>3.595106041811711</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.328882764900364</v>
+        <v>4.056979979168943</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.398367935013436</v>
+        <v>7.256080179953941</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2.440089940509498</v>
+        <v>2.322683335051661</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.953910865676903</v>
+        <v>4.707025911629536</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.61797892953535</v>
+        <v>8.433098415116106</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-2.576418613880865</v>
+        <v>2.322549308599214</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.562409724089921</v>
+        <v>5.457357145844878</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.63777581081323</v>
+        <v>9.656099819943588</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.20959616082007</v>
+        <v>6.370650842864077</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.55025146476726</v>
+        <v>9.132326447927099</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>18.77548670922492</v>
+        <v>15.09556877046282</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.5929123486226331</v>
+        <v>2.357962011490979</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.556032660965748</v>
+        <v>4.215140115631037</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.637243025793346</v>
+        <v>9.38388495052298</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.12167574264573</v>
+        <v>21.07725107938445</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.20846065840987</v>
+        <v>34.13573133484518</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.85191401769382</v>
+        <v>35.8919359502602</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.545286330684878</v>
+        <v>4.628134578372347</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>32.65204428821787</v>
+        <v>34.61080149066655</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.45610201611601</v>
+        <v>38.57408443551147</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>9.034955214924292</v>
+        <v>5.916029468888446</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>50.6885948608782</v>
+        <v>51.62434486399654</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>60.84658503051436</v>
+        <v>57.02328600285095</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.00037745100859</v>
+        <v>52.01410311402812</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>59.18857938954368</v>
+        <v>53.4654874148404</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>59.48590597425203</v>
+        <v>55.78554836336299</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.59069655453604</v>
+        <v>22.41783443390787</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.843437283256</v>
+        <v>56.14823260124798</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>59.31603469455017</v>
+        <v>58.0011386605546</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.1192420793416</v>
+        <v>24.49887895329131</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.78111217395477</v>
+        <v>39.68957826948591</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.37617627156564</v>
+        <v>48.53506538469473</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.31917870602652</v>
+        <v>4.890256676346869</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.62124065339378</v>
+        <v>48.22039924228176</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>52.46827541992353</v>
+        <v>52.67203390465486</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.833968811555771</v>
+        <v>6.268298112742574</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>69.13040823522553</v>
+        <v>69.67115187626122</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.83050672716726</v>
+        <v>70.85121346009841</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>77.50134428002565</v>
+        <v>76.92125509479797</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>86.8819569390526</v>
+        <v>83.11807004380624</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>85.90139652564696</v>
+        <v>85.66147859448557</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.88837935416028</v>
+        <v>26.07552665494528</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>82.33193647191418</v>
+        <v>81.84819268474192</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.02934652503517</v>
+        <v>78.99893469223736</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.22556290523243</v>
+        <v>12.74242272380464</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.79968097769579</v>
+        <v>16.00153730390421</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.59826614446851</v>
+        <v>16.61697542955277</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0.4302014078412846</v>
+        <v>3.581906673024545</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.50349643686933</v>
+        <v>15.78450628772263</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.25741061846414</v>
+        <v>19.01963426570813</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.457647384679703</v>
+        <v>7.046363548595458</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.10803660352921</v>
+        <v>20.58330866038291</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.72114935451951</v>
+        <v>23.19547188643003</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.51670205308197</v>
+        <v>21.89346042230994</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.43067067937416</v>
+        <v>29.01604938776956</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.67776130994257</v>
+        <v>29.62841633239239</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.66373457448572</v>
+        <v>12.10372795616882</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.55850177052918</v>
+        <v>20.33453757889056</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.38386667677683</v>
+        <v>22.76209655083504</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.032448466266295</v>
+        <v>3.945567389786628</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.70152118926801</v>
+        <v>11.07844467644448</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.10745194444716</v>
+        <v>21.43902841939594</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-1.45883583721967</v>
+        <v>2.332478268312279</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>12.20183762706253</v>
+        <v>8.766376455981671</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.38375044435182</v>
+        <v>22.9906621766756</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-0.8456123220234915</v>
+        <v>2.338574026455984</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.84379300259434</v>
+        <v>14.13010394811448</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.85830573987344</v>
+        <v>36.96139236693935</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>15.71227277495072</v>
+        <v>12.43221634131567</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.82159353465703</v>
+        <v>26.31050292544391</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.09304559899039</v>
+        <v>34.11813829302879</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.840782108019216</v>
+        <v>3.565873330781606</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.81861063371199</v>
+        <v>23.89400004141401</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.79990895739462</v>
+        <v>32.13906516224753</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.532586975556</v>
+        <v>18.52365541964776</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.47065765388036</v>
+        <v>28.08717405382722</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.38928295206786</v>
+        <v>37.84078909974528</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.906420842911061</v>
+        <v>4.351353078266072</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.42119648090332</v>
+        <v>24.18295687174924</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.58413148687124</v>
+        <v>31.9059895590843</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>8.811925855471067</v>
+        <v>11.48229086702507</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.46098649236998</v>
+        <v>43.42657965828088</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.05303300074189</v>
+        <v>55.58498685843187</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.84076115584075</v>
+        <v>47.48155416021903</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>61.5195780426608</v>
+        <v>55.89627683703995</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>64.23400299040905</v>
+        <v>64.39253413741778</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.25326484292977</v>
+        <v>28.09672254566324</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>56.08695189463987</v>
+        <v>50.54546759097893</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>58.3226529166449</v>
+        <v>54.80588536061911</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.714363344858491</v>
+        <v>4.393076653297484</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.748852470851606</v>
+        <v>7.549430881190968</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>8.75464750178153</v>
+        <v>6.804117417247372</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2.291022827911721</v>
+        <v>2.556421088966367</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>9.068758065994587</v>
+        <v>6.1960159801658</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.71424591860044</v>
+        <v>8.084543177082768</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1.995488311272414</v>
+        <v>2.568599912151381</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.11215884822753</v>
+        <v>6.771627712913681</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.55048979336969</v>
+        <v>10.18424604369605</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.15567425971402</v>
+        <v>6.334688319273418</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.11734004519971</v>
+        <v>7.187418251166761</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.28534565339084</v>
+        <v>12.25343008652276</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.335901203892814</v>
+        <v>3.277953179973554</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.206510431722762</v>
+        <v>6.31429961698122</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.21789689961665</v>
+        <v>8.433797338474395</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>1.961667449641563</v>
+        <v>3.065039554192388</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.797962297613569</v>
+        <v>4.767143028267142</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.090140625434938</v>
+        <v>5.05532998873862</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-2.555971160821304</v>
+        <v>2.322750133784538</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.711739959351128</v>
+        <v>4.403742912146374</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.629797462578136</v>
+        <v>6.137898024449381</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-2.187946606279755</v>
+        <v>2.640971848719559</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.053038340366488</v>
+        <v>5.333307259476289</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.96257285074049</v>
+        <v>8.899063597721721</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.625130921014371</v>
+        <v>4.825165986320251</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.669900691075931</v>
+        <v>7.389922906852693</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>12.53699146647891</v>
+        <v>8.988100932456522</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2.226358043656329</v>
+        <v>2.32279503451014</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.383622271424613</v>
+        <v>5.688045143157588</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.92017309132718</v>
+        <v>7.084510370569618</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.43991704046937</v>
+        <v>21.08823469061843</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.45770778672182</v>
+        <v>23.69355677766679</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.79487565790242</v>
+        <v>25.29038731222537</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.073164483518532</v>
+        <v>4.51283738234028</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.88943455848228</v>
+        <v>18.60187363431752</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.16183023485828</v>
+        <v>21.62977545644917</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.845669581430879</v>
+        <v>13.13977844003125</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.63149302105955</v>
+        <v>30.17151079918552</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.38209635163743</v>
+        <v>32.72603686193196</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>42.17614108744138</v>
+        <v>38.42892546110287</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.52251882706076</v>
+        <v>41.45989587284341</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.67275871221385</v>
+        <v>44.85542765889663</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.5758547086705</v>
+        <v>26.26426611110763</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.27523854018318</v>
+        <v>30.85200700942227</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.67582874313645</v>
+        <v>35.78074794188616</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.03709078524913</v>
+        <v>18.04167399193274</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.40504675612726</v>
+        <v>28.8297264692288</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.60483549363574</v>
+        <v>35.3302654305359</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>5.413100437619491</v>
+        <v>4.456496891151506</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.62375404197735</v>
+        <v>24.80928145141505</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.47554377604551</v>
+        <v>28.41670706562876</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.315302054711502</v>
+        <v>7.4312810222347</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>43.05473114101046</v>
+        <v>42.35183797446503</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>46.80121309480376</v>
+        <v>47.61344189193773</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.13439849523853</v>
+        <v>41.74231654957531</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.74159818827864</v>
+        <v>50.46990770890207</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>57.98771991184084</v>
+        <v>55.24776605202075</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.55833422035361</v>
+        <v>30.04347969831508</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>53.55537179157047</v>
+        <v>53.62198384864075</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>62.75224909074933</v>
+        <v>64.48749350567056</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.53893483004436</v>
+        <v>15.71096394782352</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.49339755937097</v>
+        <v>25.81783076292216</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.62064269081855</v>
+        <v>30.5305763103728</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>0.738772371803524</v>
+        <v>3.210663326916045</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.15720565908626</v>
+        <v>15.89255780718924</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.40296822163688</v>
+        <v>21.05687548127451</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.57439348955636</v>
+        <v>5.0984522492525</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.1128735232727</v>
+        <v>32.07289005225246</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>40.5403839180003</v>
+        <v>35.74727984783871</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.95151994367578</v>
+        <v>31.53014882302076</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.9330208291217</v>
+        <v>38.93461575949701</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.55346855908178</v>
+        <v>39.42247082335132</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.44619592337781</v>
+        <v>21.80018850587095</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>49.57886534399004</v>
+        <v>44.65846640697883</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>52.94320815568594</v>
+        <v>48.44501478690175</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.6562873654233</v>
+        <v>24.60460717159271</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>40.19927435030689</v>
+        <v>35.91503990427088</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>47.0701605548872</v>
+        <v>46.64003098753673</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.567460067892856</v>
+        <v>5.571817519025597</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.40553821381067</v>
+        <v>32.68349734769536</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.28506414934492</v>
+        <v>37.1873689366835</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>12.94261941928154</v>
+        <v>10.44928109255527</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>60.57878156298126</v>
+        <v>57.1045032448973</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>66.65290216989177</v>
+        <v>61.33385746145606</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>72.97448636005419</v>
+        <v>69.04566388945564</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>76.58364067329198</v>
+        <v>73.63156406151928</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>78.87125618452494</v>
+        <v>78.12931302906722</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>37.54484477336845</v>
+        <v>35.03272521091706</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>70.54769921848023</v>
+        <v>64.38725748979371</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>79.59919820662336</v>
+        <v>72.41993945997865</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.45470583900263</v>
+        <v>19.35553336652612</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.87309121983642</v>
+        <v>32.928434448053</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>39.60607693781903</v>
+        <v>38.20366786851054</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.233288301805189</v>
+        <v>6.259196080569115</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.07227635298931</v>
+        <v>41.00816171124972</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>44.14724792976563</v>
+        <v>42.10575373936863</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>12.78635002269756</v>
+        <v>10.11901382666638</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.68531527883931</v>
+        <v>58.597716126393</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62.1724775804647</v>
+        <v>62.31253361713345</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>67.23980164023403</v>
+        <v>66.98329911837681</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>71.74326313321939</v>
+        <v>69.05750359218015</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>72.45609711713571</v>
+        <v>71.09894432335693</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.96776827881909</v>
+        <v>21.72112305051299</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>63.36054897928705</v>
+        <v>61.53352750037453</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>66.17129403147483</v>
+        <v>65.9986572759894</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.05314022298109</v>
+        <v>17.02045940835722</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.43924293523526</v>
+        <v>32.59183008612271</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>37.71295866765838</v>
+        <v>39.44391909416895</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.111141385433484</v>
+        <v>4.40969573143294</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.87962649378668</v>
+        <v>32.5784881946914</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.10717750815641</v>
+        <v>36.38121847631516</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.869846618336982</v>
+        <v>4.968251148670856</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.31719657991061</v>
+        <v>50.03598413302038</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>59.36860832709438</v>
+        <v>59.96876366520016</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50.29606712937482</v>
+        <v>48.26141375705484</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>58.70598235788755</v>
+        <v>56.31395153731131</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>58.92981351878429</v>
+        <v>52.82846915012824</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.96575771973057</v>
+        <v>16.63919498811153</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>58.12502883058769</v>
+        <v>56.76987485748465</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>62.6939273731394</v>
+        <v>63.52960176510595</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.05167474483359</v>
+        <v>18.77157091047779</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.88913966193383</v>
+        <v>36.10511671245068</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.71728557695163</v>
+        <v>42.74896277876439</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.134521189188693</v>
+        <v>4.431335781145133</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.45905818715455</v>
+        <v>41.66222572419558</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>47.66615762606591</v>
+        <v>44.32713337099828</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>7.463986620361474</v>
+        <v>4.676062477290074</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>60.06623621146802</v>
+        <v>58.79734248613023</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>71.75774033144526</v>
+        <v>66.96946390331554</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>73.07057554263139</v>
+        <v>69.3925013432783</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>79.13689229444174</v>
+        <v>74.8496853310788</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>86.74832612554995</v>
+        <v>81.99096433383768</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>19.7471667124077</v>
+        <v>18.08486053330462</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>72.68902825271576</v>
+        <v>70.63332538036707</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>80.71689187236744</v>
+        <v>77.35106924336273</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>22.23359558751556</v>
+        <v>22.14084975615599</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.20134301464179</v>
+        <v>27.91987421569696</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.43691443867661</v>
+        <v>35.6925442613464</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.774044733457714</v>
+        <v>4.94524211038533</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.41931445751757</v>
+        <v>44.13633551065799</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.79656060247571</v>
+        <v>44.8383517469094</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.35138073979099</v>
+        <v>8.88311924333599</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>65.88294292908445</v>
+        <v>60.75836984652867</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.21352197544681</v>
+        <v>61.93849899021957</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>62.49642717074197</v>
+        <v>59.09911673288163</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>63.41298000766722</v>
+        <v>60.013199135995</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>67.12630116954136</v>
+        <v>63.75026650482813</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.58214119317996</v>
+        <v>34.34471076676648</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>56.45564057004842</v>
+        <v>52.98621514797215</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>72.0259996199581</v>
+        <v>69.24682763626392</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.65731409097781</v>
+        <v>24.22056595553189</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.18883707959321</v>
+        <v>36.69300883251385</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.6726623362846</v>
+        <v>36.97596880723858</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.802103727871504</v>
+        <v>3.935958220535706</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.50351934286508</v>
+        <v>34.09261893606606</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>40.70359693059093</v>
+        <v>36.7911933224168</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>6.24428759234236</v>
+        <v>5.600913879797844</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.23343816707761</v>
+        <v>51.73594201632734</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>66.15412453683066</v>
+        <v>60.15296874997266</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>54.79755894110258</v>
+        <v>53.23086832396825</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>63.33731479803374</v>
+        <v>55.88080548126658</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>64.91204965102401</v>
+        <v>57.12343832478984</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.28666293752684</v>
+        <v>24.79467119107051</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>67.04986373505511</v>
+        <v>61.02224161199158</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>70.63408479051203</v>
+        <v>64.0511926373223</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.73501965661958</v>
+        <v>25.68589571850436</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.10026542599205</v>
+        <v>39.4473397703441</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.6374353702067</v>
+        <v>42.70711471685737</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>6.738339207479431</v>
+        <v>4.35143586315478</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.88045596417108</v>
+        <v>43.02665650479447</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.47847205982372</v>
+        <v>45.95241772862562</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>7.489109866725162</v>
+        <v>5.773370405030278</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>68.10948445246531</v>
+        <v>64.49444499397239</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>73.56849880054855</v>
+        <v>67.22953638303456</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>77.67050168436116</v>
+        <v>74.55008151358103</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>84.98115980176333</v>
+        <v>78.91233019297522</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>88.60931655577278</v>
+        <v>81.62037719874711</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.74876407575039</v>
+        <v>24.94535249134111</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>79.80684261190045</v>
+        <v>72.55342014551226</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>83.3287263292827</v>
+        <v>76.15951897635333</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.43405190497036</v>
+        <v>24.21366724386644</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.57932484945336</v>
+        <v>29.77815600969417</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.35761347262196</v>
+        <v>36.81450346827999</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.3964493759549</v>
+        <v>11.18744641614857</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>60.00617896946646</v>
+        <v>61.55645523664874</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>58.10696558057458</v>
+        <v>60.1360938881642</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.82251521880473</v>
+        <v>10.51710359196022</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>66.63047706916747</v>
+        <v>63.80783492330512</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>67.21199053948446</v>
+        <v>62.16798326475702</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>68.03445763827119</v>
+        <v>64.72637900582137</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>70.51454315359085</v>
+        <v>65.83018968726536</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>71.21715653208074</v>
+        <v>66.96006758198389</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>47.12439265973269</v>
+        <v>43.61666839668433</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>59.36248963997792</v>
+        <v>55.16774212186811</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>69.48365584539337</v>
+        <v>67.90144767689662</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.2988550679286</v>
+        <v>28.10850490724516</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.53344293714912</v>
+        <v>37.27239148323322</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>41.57068977460018</v>
+        <v>38.5665746127672</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.71930425976099</v>
+        <v>39.04661107427933</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>52.38907541207951</v>
+        <v>54.69288007329926</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>57.8542986262829</v>
+        <v>53.06234918617586</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.80391257758789</v>
+        <v>7.892033914278304</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.44889414733643</v>
+        <v>54.64072380734675</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>62.41806505993056</v>
+        <v>58.14949144901733</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>52.87579727385767</v>
+        <v>50.95103699845878</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>61.81503600375227</v>
+        <v>55.30614342654803</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>62.43792000694583</v>
+        <v>55.72112706464124</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.97183856191851</v>
+        <v>31.2716694995014</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>63.61733933236343</v>
+        <v>58.77421428415062</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>68.488223613507</v>
+        <v>63.08358431138058</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.79785319483002</v>
+        <v>31.32958301882867</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>44.38719745644158</v>
+        <v>39.82674793258334</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.63936746527841</v>
+        <v>42.29657364498487</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.3111614633715</v>
+        <v>40.54709124112509</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.3467861180162</v>
+        <v>62.75841871012244</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>62.6394876263153</v>
+        <v>58.54359382082546</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>11.10713021649285</v>
+        <v>8.13838408910107</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>68.95072609248773</v>
+        <v>66.55094459144453</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>72.46881960009483</v>
+        <v>66.37096926648002</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>88.38544536965476</v>
+        <v>82.05054152723842</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>85.23496132210587</v>
+        <v>79.68851696232572</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>91.0529627843253</v>
+        <v>83.96270228829759</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.04026256897892</v>
+        <v>37.47286292112409</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>81.6148745475877</v>
+        <v>75.56947776714642</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>86.47337714409034</v>
+        <v>79.43959243961085</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.3639703208518</v>
+        <v>13.76741998041656</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.46709021500359</v>
+        <v>31.26355776548269</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.31975936958407</v>
+        <v>37.15251459790105</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.357656391473373</v>
+        <v>3.605269829454887</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.25477148252184</v>
+        <v>29.01330597487686</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>41.78175338421224</v>
+        <v>42.76850093279841</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.294843742190739</v>
+        <v>4.182411744173805</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.99045299946726</v>
+        <v>56.12772799500164</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>60.15505199202517</v>
+        <v>61.64583532747612</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>62.47653892679864</v>
+        <v>62.36789766492943</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>66.73411196388899</v>
+        <v>65.26504707848316</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>69.90627051582145</v>
+        <v>70.05195844033503</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.95463459144599</v>
+        <v>9.316769641203432</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>61.39488941861785</v>
+        <v>60.14924632124216</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>65.51341871654049</v>
+        <v>63.71639070221731</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.67412569160314</v>
+        <v>12.23610431487395</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.0485326667002</v>
+        <v>33.86423349297726</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.99773865315112</v>
+        <v>35.30962483218358</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.974419341975029</v>
+        <v>3.915021364803508</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.20466068444534</v>
+        <v>32.23582370859254</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.60529530939459</v>
+        <v>33.75127088855251</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.156047220314449</v>
+        <v>4.20673612302549</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.22333357943985</v>
+        <v>49.61674187412685</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.02912201658382</v>
+        <v>55.7859971902472</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.35953940860231</v>
+        <v>48.26042111134078</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>56.6743145314969</v>
+        <v>56.16307821249367</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.15246819299134</v>
+        <v>53.37397723363442</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.959058324972663</v>
+        <v>8.096956654558163</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>45.77748882204142</v>
+        <v>41.28372424652263</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>61.31994115774749</v>
+        <v>61.06819002675017</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>15.99513643532312</v>
+        <v>11.91226357393635</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.41305532708449</v>
+        <v>35.62618059214488</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.34999687186254</v>
+        <v>41.11802552212878</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.079818468311224</v>
+        <v>3.081953867728508</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.57715409406688</v>
+        <v>39.39554376766262</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>45.0956957447658</v>
+        <v>43.11100618092026</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>4.791653660149574</v>
+        <v>4.081536548891062</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>60.52631767475163</v>
+        <v>57.61683928950698</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>69.66259148003377</v>
+        <v>63.9969701367156</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>72.74879923002321</v>
+        <v>68.60433684722447</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>77.75677680648835</v>
+        <v>74.17906799851927</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>84.13602059206522</v>
+        <v>81.19783711836806</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.29757024069588</v>
+        <v>3.987063647055436</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>71.86905969541112</v>
+        <v>69.55464339085805</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>80.01526132775261</v>
+        <v>76.98708636763507</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.86866134335665</v>
+        <v>14.45445511011379</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.32638939601942</v>
+        <v>17.21643904082291</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.62670571912283</v>
+        <v>16.48665463059111</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2.207251675076506</v>
+        <v>4.320456656335676</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.06368746011921</v>
+        <v>17.65091173593983</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.55391625053766</v>
+        <v>18.76734620777977</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>4.580138017402852</v>
+        <v>7.916380968417421</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.06721361439568</v>
+        <v>25.07250475623393</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.36638893518456</v>
+        <v>28.18199389611683</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.90204266660956</v>
+        <v>27.16935658709121</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>35.92194928588551</v>
+        <v>31.17353443398095</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.21861554755695</v>
+        <v>34.05168127197402</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.9136125219791</v>
+        <v>17.97151595565458</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.28047811191696</v>
+        <v>22.47912809818792</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.60312115615735</v>
+        <v>24.31345922138847</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.18777798453308</v>
+        <v>10.37902847325717</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.44570484765777</v>
+        <v>28.53398341007698</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.98097174722993</v>
+        <v>34.8777270831001</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>7.274364566378054</v>
+        <v>4.357999620214372</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.04458365836595</v>
+        <v>28.84939341548095</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.10552922564389</v>
+        <v>37.80625194294896</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>8.027285621797887</v>
+        <v>5.13348779028702</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>46.53419486647165</v>
+        <v>44.37918209416479</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>56.20064452617876</v>
+        <v>57.32716566730608</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.96288946558226</v>
+        <v>43.70330641505247</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>51.16756548868133</v>
+        <v>49.56819060305735</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.01296771480335</v>
+        <v>55.50150032284829</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.15172623367645</v>
+        <v>9.383394377521704</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.18191010536703</v>
+        <v>47.33406008624613</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>56.77290750978244</v>
+        <v>57.40939119231078</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.30451745470958</v>
+        <v>17.23639341310708</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.0589628403571</v>
+        <v>36.87480705386647</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.02010074030377</v>
+        <v>44.43081695639804</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.214003336441028</v>
+        <v>5.960901646159005</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.90995295190128</v>
+        <v>38.52886986795664</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.27921400014872</v>
+        <v>46.76091275063824</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>15.509599625281</v>
+        <v>11.25879885332806</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>61.0029039726011</v>
+        <v>57.28213164633418</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>69.9898227304664</v>
+        <v>68.44324134205591</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.69247652130221</v>
+        <v>60.58132251229633</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>67.66302177775097</v>
+        <v>63.61849414024066</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>80.79709565242318</v>
+        <v>78.52512840506255</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.04372882846988</v>
+        <v>23.47024815897991</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>64.86452636449997</v>
+        <v>59.33001687713853</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>78.20982176839635</v>
+        <v>74.79341715915228</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.29257051097609</v>
+        <v>14.30225311569916</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.60514364808935</v>
+        <v>17.39878421336739</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.76455168189196</v>
+        <v>19.16281841068938</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>0.9872628160917287</v>
+        <v>4.410585050182839</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.73444908985783</v>
+        <v>18.83044504983773</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.67161317496932</v>
+        <v>20.46915191172988</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>4.370022836137874</v>
+        <v>8.009374309272008</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.83772601688728</v>
+        <v>27.74603379632187</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.96139296266699</v>
+        <v>31.35763034427918</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.23603402318897</v>
+        <v>38.50185415441287</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>48.63661317823821</v>
+        <v>46.82000024394767</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.23787013991411</v>
+        <v>52.87832304818345</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.88736452385259</v>
+        <v>16.60338825875299</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.49379468875584</v>
+        <v>30.71434278694878</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.54524416325221</v>
+        <v>33.15305581286932</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.369924195037679</v>
+        <v>6.2361408675795</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.14774648845685</v>
+        <v>15.77841386473682</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.81474735383023</v>
+        <v>34.57502232494129</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.397879401367629</v>
+        <v>4.215194851427093</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.04558516286788</v>
+        <v>12.94588524447578</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.8194253443056</v>
+        <v>53.1437946729903</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1.740426613678352</v>
+        <v>4.052113753475872</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.55104662619204</v>
+        <v>27.22051154834024</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>54.98757280811057</v>
+        <v>55.64910239708961</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.84733095129473</v>
+        <v>30.1155915992923</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>49.58192076999596</v>
+        <v>43.52456223218805</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>60.89645898100893</v>
+        <v>56.50875741773941</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.000924278460658</v>
+        <v>6.218277239329563</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>46.74120884337028</v>
+        <v>43.08433523977475</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>58.02184492125787</v>
+        <v>57.23846028204026</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>19.84479720351715</v>
+        <v>15.84681688094921</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.19065340015185</v>
+        <v>28.55850069712207</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.01380968388873</v>
+        <v>40.03823253462382</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.911344823788163</v>
+        <v>4.652576619224838</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.32259406047319</v>
+        <v>15.55724223940977</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.29180211436335</v>
+        <v>43.74215682605278</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.661958869061543</v>
+        <v>6.541729830866128</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>45.62486122123979</v>
+        <v>38.92167219366893</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>62.78246273229605</v>
+        <v>63.48308608010493</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.13448024549989</v>
+        <v>60.71811806791754</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>66.71591099135145</v>
+        <v>62.74205482463192</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>80.74100397001949</v>
+        <v>78.58720394165275</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.88798964931655</v>
+        <v>11.99617974929404</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>49.63487425137117</v>
+        <v>45.62399366023985</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>74.57776834347403</v>
+        <v>72.39806265600781</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.21722032005096</v>
+        <v>22.93882384407945</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.39261050689398</v>
+        <v>28.80728235004478</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.91718808922472</v>
+        <v>34.77222454668807</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.567974993089404</v>
+        <v>5.654134506369211</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>48.23962141701877</v>
+        <v>46.51916256600469</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>49.30000505352547</v>
+        <v>45.31197010083136</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>15.06728185022013</v>
+        <v>10.84057369829971</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>65.71697048285128</v>
+        <v>62.85519441628297</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>64.62211740597593</v>
+        <v>61.65514513359597</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>61.81788167170193</v>
+        <v>58.44717554576124</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>66.76799518709706</v>
+        <v>63.11350630407233</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>69.19905995615311</v>
+        <v>66.11386270866136</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.95157528972523</v>
+        <v>35.0863746007587</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>53.16423490199239</v>
+        <v>49.60257165973049</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>75.43578266090577</v>
+        <v>69.88923148353864</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.13726904245596</v>
+        <v>28.3246274543987</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>39.58627666550549</v>
+        <v>36.97949474150384</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>42.29844710610075</v>
+        <v>38.70689236654586</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>8.033045053345653</v>
+        <v>5.073630850332961</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>36.85787427713595</v>
+        <v>37.76724051639244</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>41.21065143544018</v>
+        <v>37.32755906084331</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.799308005510795</v>
+        <v>6.598375688877514</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.85314689129697</v>
+        <v>55.61835431206333</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.22010439872837</v>
+        <v>57.97548428955184</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.51193593410024</v>
+        <v>55.02075690299142</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>60.91456140177271</v>
+        <v>56.37891190968534</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>62.36359380253005</v>
+        <v>58.39073826320239</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.73483815772559</v>
+        <v>29.54088368330833</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>63.89252218712977</v>
+        <v>59.50305585985269</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>64.82909324986488</v>
+        <v>60.3738907834276</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.46593097459127</v>
+        <v>27.33044610555264</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>42.89728800272114</v>
+        <v>38.76300851234693</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>46.0930648868121</v>
+        <v>41.61772696580546</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.876516484201506</v>
+        <v>5.571286227752527</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>44.8654704293964</v>
+        <v>45.94335410097195</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>48.03366799763187</v>
+        <v>43.52443425769084</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>10.02838311301822</v>
+        <v>6.646365251285573</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>67.26199219626506</v>
+        <v>66.77490570255132</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>73.13907173538304</v>
+        <v>69.69134433549476</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>77.37908843246527</v>
+        <v>76.92284244772384</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>79.68294572864147</v>
+        <v>77.56878202034817</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>84.42477280637395</v>
+        <v>77.56123494826191</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.39274876538008</v>
+        <v>32.9970638647119</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>73.56786192328509</v>
+        <v>70.20785097311239</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>80.188871295856</v>
+        <v>74.45943287214047</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>18.34031550431112</v>
+        <v>13.80707419569599</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.08829702383431</v>
+        <v>33.37744484492963</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.15650020620231</v>
+        <v>35.09019566187906</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.038971336793146</v>
+        <v>4.455231547105321</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>37.77131238277458</v>
+        <v>38.70116157643263</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>41.51353926267264</v>
+        <v>41.4382248765148</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>7.17473243617086</v>
+        <v>4.728151724134367</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>55.41263175079503</v>
+        <v>56.0405538163578</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>58.22880775381686</v>
+        <v>59.77118652635852</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>57.3582089250969</v>
+        <v>57.534076853146</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>67.10063673848774</v>
+        <v>66.77102183620795</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>67.35919658166112</v>
+        <v>66.40553072935447</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.93716507038951</v>
+        <v>9.168652318081488</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>58.87629557998427</v>
+        <v>57.88150313521533</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>65.7969612122789</v>
+        <v>62.9134789149591</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.52006909407352</v>
+        <v>12.68338760141493</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.44177846322786</v>
+        <v>33.23454836583673</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.32712597368056</v>
+        <v>34.91804335900224</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.186643256187867</v>
+        <v>4.084188761780251</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.91148970550046</v>
+        <v>31.81737430801161</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>38.90263681306342</v>
+        <v>34.45341708145074</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.473396028279677</v>
+        <v>3.246542646747745</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>52.64041799869531</v>
+        <v>46.9473805251932</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>61.9985253006205</v>
+        <v>56.16556871447639</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>54.07550607654744</v>
+        <v>51.47700337102025</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>60.3841905677581</v>
+        <v>55.11513622307187</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>61.01398475863097</v>
+        <v>56.62372725095207</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.14825820588758</v>
+        <v>8.719422700222982</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>63.18700394202511</v>
+        <v>57.84930716260217</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>63.82955615220322</v>
+        <v>60.11992487758751</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.3711189884903</v>
+        <v>11.49244954564329</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.85791824208984</v>
+        <v>35.49971785989451</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.22669199307589</v>
+        <v>42.41182699272292</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.915725305103177</v>
+        <v>3.839565983532768</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.06403416903714</v>
+        <v>39.27976892755113</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.53481360750707</v>
+        <v>43.71108147899913</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>5.616316535114759</v>
+        <v>4.207687903928598</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>58.60496409210143</v>
+        <v>55.23356432656068</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>69.01724301807991</v>
+        <v>66.59288128171666</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>69.1441581342109</v>
+        <v>64.57475304251126</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>75.82530982204123</v>
+        <v>70.09767416693717</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>83.85160430463165</v>
+        <v>79.03182201222883</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>10.58706605604865</v>
+        <v>8.363754156394993</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>66.73783318987437</v>
+        <v>62.50226308294395</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>76.77524133314061</v>
+        <v>73.99730359976596</v>
       </c>
     </row>
   </sheetData>
